--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl2-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl2-Ccr3.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.025457</v>
+        <v>10.93086033333333</v>
       </c>
       <c r="H2">
-        <v>12.076371</v>
+        <v>32.792581</v>
       </c>
       <c r="I2">
-        <v>0.007988230327331255</v>
+        <v>0.02611891973042464</v>
       </c>
       <c r="J2">
-        <v>0.008053698920764607</v>
+        <v>0.02622656909968252</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N2">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O2">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P2">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q2">
-        <v>0.53291683404</v>
+        <v>1.503743881576222</v>
       </c>
       <c r="R2">
-        <v>4.796251506359999</v>
+        <v>13.533694934186</v>
       </c>
       <c r="S2">
-        <v>0.002378288211806323</v>
+        <v>0.007565535065963015</v>
       </c>
       <c r="T2">
-        <v>0.002397779785988072</v>
+        <v>0.007596716488715374</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.025457</v>
+        <v>10.93086033333333</v>
       </c>
       <c r="H3">
-        <v>12.076371</v>
+        <v>32.792581</v>
       </c>
       <c r="I3">
-        <v>0.007988230327331255</v>
+        <v>0.02611891973042464</v>
       </c>
       <c r="J3">
-        <v>0.008053698920764607</v>
+        <v>0.02622656909968252</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N3">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O3">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P3">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q3">
-        <v>1.257052268313</v>
+        <v>3.687715201695778</v>
       </c>
       <c r="R3">
-        <v>11.313470414817</v>
+        <v>33.189436815262</v>
       </c>
       <c r="S3">
-        <v>0.005609942115524932</v>
+        <v>0.01855338466446163</v>
       </c>
       <c r="T3">
-        <v>0.005655919134776533</v>
+        <v>0.01862985261096715</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +670,40 @@
         <v>429.64891</v>
       </c>
       <c r="I4">
-        <v>0.2842024688515132</v>
+        <v>0.3422104954945279</v>
       </c>
       <c r="J4">
-        <v>0.2865316876050504</v>
+        <v>0.3436209192170106</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N4">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O4">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P4">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q4">
-        <v>18.95992901062222</v>
+        <v>19.70207589449556</v>
       </c>
       <c r="R4">
-        <v>170.6393610956</v>
+        <v>177.31868305046</v>
       </c>
       <c r="S4">
-        <v>0.08461390742868331</v>
+        <v>0.09912375895809446</v>
       </c>
       <c r="T4">
-        <v>0.08530737184786794</v>
+        <v>0.09953229844749298</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>429.64891</v>
       </c>
       <c r="I5">
-        <v>0.2842024688515132</v>
+        <v>0.3422104954945279</v>
       </c>
       <c r="J5">
-        <v>0.2865316876050504</v>
+        <v>0.3436209192170106</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N5">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O5">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P5">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q5">
-        <v>44.72296660095223</v>
+        <v>48.31650234542445</v>
       </c>
       <c r="R5">
-        <v>402.50669940857</v>
+        <v>434.84852110882</v>
       </c>
       <c r="S5">
-        <v>0.1995885614228299</v>
+        <v>0.2430867365364335</v>
       </c>
       <c r="T5">
-        <v>0.2012243157571824</v>
+        <v>0.2440886207695177</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>85.72041200000001</v>
+        <v>157.1889546666667</v>
       </c>
       <c r="H6">
-        <v>257.161236</v>
+        <v>471.566864</v>
       </c>
       <c r="I6">
-        <v>0.1701060015818651</v>
+        <v>0.3755976715691904</v>
       </c>
       <c r="J6">
-        <v>0.1715001277151632</v>
+        <v>0.3771457008466821</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N6">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O6">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P6">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q6">
-        <v>11.34823960997333</v>
+        <v>21.62427490822045</v>
       </c>
       <c r="R6">
-        <v>102.13415648976</v>
+        <v>194.618474173984</v>
       </c>
       <c r="S6">
-        <v>0.05064464615341345</v>
+        <v>0.1087945973370688</v>
       </c>
       <c r="T6">
-        <v>0.05105971101918848</v>
+        <v>0.1092429952762974</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>85.72041200000001</v>
+        <v>157.1889546666667</v>
       </c>
       <c r="H7">
-        <v>257.161236</v>
+        <v>471.566864</v>
       </c>
       <c r="I7">
-        <v>0.1701060015818651</v>
+        <v>0.3755976715691904</v>
       </c>
       <c r="J7">
-        <v>0.1715001277151632</v>
+        <v>0.3771457008466821</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N7">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O7">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P7">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q7">
-        <v>26.76839880424134</v>
+        <v>53.03041846534756</v>
       </c>
       <c r="R7">
-        <v>240.915589238172</v>
+        <v>477.273766188128</v>
       </c>
       <c r="S7">
-        <v>0.1194613554284517</v>
+        <v>0.2668030742321216</v>
       </c>
       <c r="T7">
-        <v>0.1204404166959746</v>
+        <v>0.2679027055703847</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.2891965</v>
+        <v>5.153359</v>
       </c>
       <c r="H8">
-        <v>24.578393</v>
+        <v>10.306718</v>
       </c>
       <c r="I8">
-        <v>0.02438702790262897</v>
+        <v>0.01231377640537609</v>
       </c>
       <c r="J8">
-        <v>0.0163912633338466</v>
+        <v>0.008243018499152039</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N8">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O8">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P8">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q8">
-        <v>1.626925760646667</v>
+        <v>0.7089407264846667</v>
       </c>
       <c r="R8">
-        <v>9.761554563879999</v>
+        <v>4.253644358908001</v>
       </c>
       <c r="S8">
-        <v>0.007260604490004866</v>
+        <v>0.003566774895394428</v>
       </c>
       <c r="T8">
-        <v>0.004880073153389437</v>
+        <v>0.002387650260744634</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.2891965</v>
+        <v>5.153359</v>
       </c>
       <c r="H9">
-        <v>24.578393</v>
+        <v>10.306718</v>
       </c>
       <c r="I9">
-        <v>0.02438702790262897</v>
+        <v>0.01231377640537609</v>
       </c>
       <c r="J9">
-        <v>0.0163912633338466</v>
+        <v>0.008243018499152039</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N9">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O9">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P9">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q9">
-        <v>3.837617029835167</v>
+        <v>1.738574983539333</v>
       </c>
       <c r="R9">
-        <v>23.025702179011</v>
+        <v>10.431449901236</v>
       </c>
       <c r="S9">
-        <v>0.0171264234126241</v>
+        <v>0.008747001509981662</v>
       </c>
       <c r="T9">
-        <v>0.01151119018045716</v>
+        <v>0.005855368238407405</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>258.672133</v>
+        <v>102.0140613333333</v>
       </c>
       <c r="H10">
-        <v>776.016399</v>
+        <v>306.042184</v>
       </c>
       <c r="I10">
-        <v>0.5133162713366615</v>
+        <v>0.2437591368004809</v>
       </c>
       <c r="J10">
-        <v>0.5175232224251752</v>
+        <v>0.2447637923374727</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N10">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O10">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P10">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q10">
-        <v>34.24474144742666</v>
+        <v>14.03393839887822</v>
       </c>
       <c r="R10">
-        <v>308.2026730268399</v>
+        <v>126.305445589904</v>
       </c>
       <c r="S10">
-        <v>0.1528265945050952</v>
+        <v>0.07060660686378745</v>
       </c>
       <c r="T10">
-        <v>0.1540791049825692</v>
+        <v>0.07089761264705771</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>258.672133</v>
+        <v>102.0140613333333</v>
       </c>
       <c r="H11">
-        <v>776.016399</v>
+        <v>306.042184</v>
       </c>
       <c r="I11">
-        <v>0.5133162713366615</v>
+        <v>0.2437591368004809</v>
       </c>
       <c r="J11">
-        <v>0.5175232224251752</v>
+        <v>0.2447637923374727</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N11">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O11">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P11">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q11">
-        <v>80.77701278066365</v>
+        <v>34.41621183452978</v>
       </c>
       <c r="R11">
-        <v>726.993115025973</v>
+        <v>309.7459065107681</v>
       </c>
       <c r="S11">
-        <v>0.3604896768315662</v>
+        <v>0.1731525299366934</v>
       </c>
       <c r="T11">
-        <v>0.363444117442606</v>
+        <v>0.173866179690415</v>
       </c>
     </row>
   </sheetData>
